--- a/毕业设计相关/毕业论文/设计图/RSA加密算法原理图.xlsx
+++ b/毕业设计相关/毕业论文/设计图/RSA加密算法原理图.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -79,13 +79,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -191,13 +191,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
@@ -266,13 +266,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -341,13 +341,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -433,13 +433,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -525,13 +525,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>523877</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -710,13 +710,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -852,13 +852,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -967,13 +967,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1082,13 +1082,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1138,13 +1138,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
@@ -1194,13 +1194,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1250,13 +1250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>319089</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
@@ -1306,13 +1306,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>319089</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1362,13 +1362,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1418,13 +1418,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1474,13 +1474,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>328613</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1530,13 +1530,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>328613</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3133,13 +3133,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
@@ -3156,7 +3156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="5219700"/>
+          <a:off x="5372100" y="3952875"/>
           <a:ext cx="542925" cy="523874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3215,7 +3215,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
@@ -3241,8 +3241,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620125" y="5481637"/>
-          <a:ext cx="1076325" cy="1"/>
+          <a:off x="5915025" y="4214812"/>
+          <a:ext cx="1038225" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7074,6 +7074,1417 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="矩形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66A2BD8-4520-43CE-B2C4-F9597587C05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="3657600"/>
+          <a:ext cx="2162175" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>生成私钥（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>公钥（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="矩形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EF7FFB-174E-4470-A3A8-F76AB302BF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="828675"/>
+          <a:ext cx="1076325" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>随机生成两个质数，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>≠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>q</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="矩形: 圆角 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CB91E2-F07F-4077-ADEF-BCCE97478530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="428626"/>
+          <a:ext cx="466725" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>开始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="矩形: 圆角 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21883568-962C-469A-9565-A5840B4A4DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="4067175"/>
+          <a:ext cx="466725" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>结束</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="矩形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB89ADFA-27EC-4975-B7E9-4DD9CFF46AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="1447802"/>
+          <a:ext cx="1095375" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>计算 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n = p * q</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="矩形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125BEE9C-E5C0-4D8A-AA34-39CA24401284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114426" y="1828800"/>
+          <a:ext cx="1143000" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>φ(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n)=(p-1)(q-1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523877</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="矩形 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53ECB49-FF22-4241-97AD-824EBB99416A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209677" y="2219326"/>
+          <a:ext cx="962024" cy="657224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>随机整数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1&lt; e &lt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>φ(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>φ(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>互质</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="矩形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C0363D-CF9B-4536-A3B7-9CB31FC48DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="3038475"/>
+          <a:ext cx="1009650" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>计算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>对于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>φ(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>的模反元素</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>d</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接箭头连接符 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EEA844-3B70-4A4A-980F-325349F8A26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="118" idx="2"/>
+          <a:endCxn id="117" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681163" y="695326"/>
+          <a:ext cx="0" cy="133349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直接箭头连接符 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1128008-2FD9-42B4-8F48-BBC566E821BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="117" idx="2"/>
+          <a:endCxn id="123" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681163" y="1257300"/>
+          <a:ext cx="0" cy="190502"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直接箭头连接符 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3CB5C1-A49F-4173-A724-9EAB4C4F18AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="2"/>
+          <a:endCxn id="124" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681163" y="1666876"/>
+          <a:ext cx="4763" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直接箭头连接符 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE1E5BA-F9A3-44DB-A616-38C7AAD5A567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="2"/>
+          <a:endCxn id="128" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685926" y="2047875"/>
+          <a:ext cx="4763" cy="171451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直接箭头连接符 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCC0285-122A-4B63-B943-C6A91563C88D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="2"/>
+          <a:endCxn id="131" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1690689" y="2876550"/>
+          <a:ext cx="4761" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直接箭头连接符 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC406ED-6B60-40B8-BC84-821373318A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="131" idx="2"/>
+          <a:endCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="3467100"/>
+          <a:ext cx="4763" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直接箭头连接符 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E913DA13-2A9A-4F13-9B48-1B876C6FD58A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="122" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3757613" y="3886200"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7368,8 +8779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
